--- a/biology/Zoologie/Anguillule_des_céréales_et_des_bulbes/Anguillule_des_céréales_et_des_bulbes.xlsx
+++ b/biology/Zoologie/Anguillule_des_céréales_et_des_bulbes/Anguillule_des_céréales_et_des_bulbes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anguillule_des_c%C3%A9r%C3%A9ales_et_des_bulbes</t>
+          <t>Anguillule_des_céréales_et_des_bulbes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ditylenchus dipsaci
 Ditylenchus dipsaci  est une espèce de nématodes (vers ronds) de la famille des Anguinidae, très commun en Europe.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anguillule_des_c%C3%A9r%C3%A9ales_et_des_bulbes</t>
+          <t>Anguillule_des_céréales_et_des_bulbes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Anguillula dipsaci Kuhn, 1857
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Anguillula dipsaci Kuhn, 1857
 Anguillula dipsaci (Kühn) Gerv. et. v. Ben., 1859
 Tylenchus dipsaci (Kühn) Bastian, 1865
 Anguillula devastatrix Kühn, 1868
@@ -526,12 +543,7 @@
 Tylenchus alii Beijerinck, 1883
 Tylenchus devastatrix Ritzema Bos, 1888
 Ditylenchus phloxidis Kirianova, 1951
-Ditylenchus fragariae Kirianova, 1951
-Noms vernaculaires
-Anguillule des céréales et des bulbes[1],
-Anguillule des tiges[1]
-Anguillule des tiges et des bulbes
-Nématode du collet.</t>
+Ditylenchus fragariae Kirianova, 1951</t>
         </is>
       </c>
     </row>
@@ -541,7 +553,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anguillule_des_c%C3%A9r%C3%A9ales_et_des_bulbes</t>
+          <t>Anguillule_des_céréales_et_des_bulbes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,13 +568,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ce ver rond mesure de 1 à 2 mm de long.
-</t>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Anguillule des céréales et des bulbes,
+Anguillule des tiges
+Anguillule des tiges et des bulbes
+Nématode du collet.</t>
         </is>
       </c>
     </row>
@@ -572,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anguillule_des_c%C3%A9r%C3%A9ales_et_des_bulbes</t>
+          <t>Anguillule_des_céréales_et_des_bulbes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,12 +607,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce ver rond mesure de 1 à 2 mm de long.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anguillule_des_céréales_et_des_bulbes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anguillule_des_c%C3%A9r%C3%A9ales_et_des_bulbes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Il peut persister dans le sol à l’état de vie ralentie pendant plusieurs années (10 ans ?), et peut également survivre au dessèchement pendant longtemps. Des scientifiques ont pu mettre en évidence que cette espèce a pu survivre pendant vingt ans dans une masse d'ouate de coton sèche[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Il peut persister dans le sol à l’état de vie ralentie pendant plusieurs années (10 ans ?), et peut également survivre au dessèchement pendant longtemps. Des scientifiques ont pu mettre en évidence que cette espèce a pu survivre pendant vingt ans dans une masse d'ouate de coton sèche.
 Les hôtes sont plus d’un millier de plantes, mais principalement :
 des graminées (avoine, seigle, maïs)
 des liliacées (oignon, ail, poireau)
@@ -603,44 +658,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Anguillule_des_c%C3%A9r%C3%A9ales_et_des_bulbes</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anguillule_des_c%C3%A9r%C3%A9ales_et_des_bulbes</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ditylenchus dipsaci est présent, sous la forme de races biologiques très diversifiées, dans la plupart des régions tempérées du monde, notamment en Europe, dans le bassin méditerranéen, en Amérique du Nord et du Sud, en Afrique du Nord et en Afrique australe, ainsi qu'en Asie et en Océanie, mais ne se rencontre pas généralement dans les régions tropicales[3].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Anguillule_des_c%C3%A9r%C3%A9ales_et_des_bulbes</t>
+          <t>Anguillule_des_céréales_et_des_bulbes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -655,14 +679,49 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ditylenchus dipsaci est présent, sous la forme de races biologiques très diversifiées, dans la plupart des régions tempérées du monde, notamment en Europe, dans le bassin méditerranéen, en Amérique du Nord et du Sud, en Afrique du Nord et en Afrique australe, ainsi qu'en Asie et en Océanie, mais ne se rencontre pas généralement dans les régions tropicales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anguillule_des_céréales_et_des_bulbes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anguillule_des_c%C3%A9r%C3%A9ales_et_des_bulbes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Dégâts</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ditylenchus dipsaci est l'un des nématodes parasites des plantes parmi les plus dévastateurs[4].
-En cas d'infestation par Ditylenchus dipsaci, les cultures peuvent être détruites de 60 à 80 %[4].
-Les conditions environnementales favorables au développement de Ditylenchus dipsaci sont une température comprise entre 15 et 20 °C et une humidité suffisante pour permettre ses mouvements[5].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ditylenchus dipsaci est l'un des nématodes parasites des plantes parmi les plus dévastateurs.
+En cas d'infestation par Ditylenchus dipsaci, les cultures peuvent être détruites de 60 à 80 %.
+Les conditions environnementales favorables au développement de Ditylenchus dipsaci sont une température comprise entre 15 et 20 °C et une humidité suffisante pour permettre ses mouvements.
 </t>
         </is>
       </c>
